--- a/开发资料/curriculumEvaluationSystem.xlsx
+++ b/开发资料/curriculumEvaluationSystem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\加油吧少年\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_Repository\Clone_Files\CurriculumEvaluationSystem\开发资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="20385" windowHeight="8355" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20385" windowHeight="8355" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="adminInfo" sheetId="10" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="couClassStuInfo" sheetId="18" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="adminInfo">adminInfo!$A$1:$F$6</definedName>
+    <definedName name="adminInfo">adminInfo!$A$1:$E$6</definedName>
     <definedName name="commentCouInfo">commentCouInfo!$A$1:$Q$36</definedName>
     <definedName name="couClassStuInfo">couClassStuInfo!$A$1:$D$70</definedName>
     <definedName name="courseInfo">courseInfo!$A$1:$I$11</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="264">
   <si>
     <t>adminNum</t>
   </si>
@@ -46,9 +46,6 @@
     <t>adminName</t>
   </si>
   <si>
-    <t>adminPassword</t>
-  </si>
-  <si>
     <t>adminPhone</t>
   </si>
   <si>
@@ -556,9 +553,6 @@
     <t>couTerm</t>
   </si>
   <si>
-    <t>couForm</t>
-  </si>
-  <si>
     <t>couTime</t>
   </si>
   <si>
@@ -833,6 +827,10 @@
   </si>
   <si>
     <t>69</t>
+  </si>
+  <si>
+    <t>couFrom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -886,74 +884,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -973,7 +903,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1252,15 +1182,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1276,16 +1206,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1296,88 +1223,73 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1397,225 +1309,225 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>37</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
         <v>48</v>
       </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
       <c r="F5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>52</v>
-      </c>
       <c r="F6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
         <v>54</v>
       </c>
-      <c r="C7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
         <v>56</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
         <v>59</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>61</v>
-      </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
-        <v>63</v>
-      </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
         <v>64</v>
       </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
       <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
-        <v>38</v>
-      </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1635,140 +1547,140 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>66</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>67</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>69</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>70</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="C2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>75</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
         <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="C3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
         <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
         <v>83</v>
       </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
         <v>85</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>89</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
         <v>90</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
         <v>93</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
         <v>94</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1788,359 +1700,359 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>98</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
-        <v>74</v>
-      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
         <v>87</v>
       </c>
-      <c r="B5" t="s">
-        <v>88</v>
-      </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
         <v>92</v>
       </c>
-      <c r="B6" t="s">
-        <v>93</v>
-      </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="B15" t="s">
-        <v>47</v>
-      </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s">
-        <v>57</v>
-      </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -2162,55 +2074,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>108</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>109</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>110</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>111</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>112</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>113</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>114</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>115</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>116</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>117</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>118</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>119</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -2218,49 +2130,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
         <v>121</v>
       </c>
-      <c r="C2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
-      </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H2" t="s">
         <v>124</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K2" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" t="s">
+        <v>123</v>
+      </c>
+      <c r="P2" t="s">
         <v>125</v>
       </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" t="s">
-        <v>124</v>
-      </c>
-      <c r="L2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M2" t="s">
-        <v>123</v>
-      </c>
-      <c r="N2" t="s">
-        <v>124</v>
-      </c>
-      <c r="P2" t="s">
-        <v>126</v>
-      </c>
       <c r="Q2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -2268,49 +2180,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" t="s">
-        <v>122</v>
-      </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P3" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" t="s">
         <v>127</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -2318,49 +2230,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
         <v>121</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P4" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" t="s">
         <v>129</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -2368,49 +2280,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>121</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
-      </c>
       <c r="E5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" t="s">
         <v>127</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -2418,49 +2330,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>122</v>
-      </c>
       <c r="E6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" t="s">
         <v>131</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -2468,49 +2380,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="I7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s">
+        <v>122</v>
+      </c>
+      <c r="M7" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P7" t="s">
         <v>133</v>
       </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J7" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -2518,49 +2430,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q8" t="s">
         <v>127</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -2568,49 +2480,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" t="s">
+        <v>122</v>
+      </c>
+      <c r="N9" t="s">
+        <v>122</v>
+      </c>
+      <c r="P9" t="s">
         <v>133</v>
       </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" t="s">
-        <v>123</v>
-      </c>
-      <c r="F9" t="s">
-        <v>124</v>
-      </c>
-      <c r="G9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" t="s">
-        <v>123</v>
-      </c>
-      <c r="I9" t="s">
-        <v>123</v>
-      </c>
-      <c r="J9" t="s">
-        <v>123</v>
-      </c>
-      <c r="K9" t="s">
-        <v>123</v>
-      </c>
-      <c r="L9" t="s">
-        <v>123</v>
-      </c>
-      <c r="M9" t="s">
-        <v>123</v>
-      </c>
-      <c r="N9" t="s">
-        <v>123</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>134</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -2618,49 +2530,49 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F10" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>122</v>
+      </c>
+      <c r="I10" t="s">
         <v>124</v>
       </c>
-      <c r="G10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" t="s">
-        <v>123</v>
-      </c>
-      <c r="I10" t="s">
-        <v>125</v>
-      </c>
       <c r="J10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P10" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" t="s">
         <v>131</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -2668,49 +2580,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I11" t="s">
+        <v>122</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>122</v>
+      </c>
+      <c r="L11" t="s">
+        <v>122</v>
+      </c>
+      <c r="M11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="P11" t="s">
         <v>133</v>
       </c>
-      <c r="C11" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" t="s">
-        <v>123</v>
-      </c>
-      <c r="H11" t="s">
-        <v>123</v>
-      </c>
-      <c r="I11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" t="s">
-        <v>123</v>
-      </c>
-      <c r="K11" t="s">
-        <v>123</v>
-      </c>
-      <c r="L11" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" t="s">
-        <v>123</v>
-      </c>
-      <c r="N11" t="s">
-        <v>123</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>134</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -2718,49 +2630,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F12" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M12" t="s">
+        <v>122</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="P12" t="s">
         <v>138</v>
       </c>
-      <c r="C12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F12" t="s">
-        <v>123</v>
-      </c>
-      <c r="G12" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" t="s">
-        <v>123</v>
-      </c>
-      <c r="I12" t="s">
-        <v>123</v>
-      </c>
-      <c r="J12" t="s">
-        <v>123</v>
-      </c>
-      <c r="K12" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" t="s">
-        <v>123</v>
-      </c>
-      <c r="M12" t="s">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s">
-        <v>123</v>
-      </c>
-      <c r="P12" t="s">
-        <v>139</v>
-      </c>
       <c r="Q12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -2768,49 +2680,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q13" t="s">
         <v>127</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -2818,49 +2730,49 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>122</v>
+      </c>
+      <c r="K14" t="s">
+        <v>122</v>
+      </c>
+      <c r="L14" t="s">
+        <v>122</v>
+      </c>
+      <c r="M14" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" t="s">
         <v>138</v>
       </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" t="s">
-        <v>123</v>
-      </c>
-      <c r="F14" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" t="s">
-        <v>123</v>
-      </c>
-      <c r="H14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" t="s">
-        <v>123</v>
-      </c>
-      <c r="J14" t="s">
-        <v>123</v>
-      </c>
-      <c r="K14" t="s">
-        <v>123</v>
-      </c>
-      <c r="L14" t="s">
-        <v>123</v>
-      </c>
-      <c r="M14" t="s">
-        <v>123</v>
-      </c>
-      <c r="N14" t="s">
-        <v>123</v>
-      </c>
-      <c r="P14" t="s">
-        <v>139</v>
-      </c>
       <c r="Q14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -2868,49 +2780,49 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" t="s">
         <v>134</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -2918,49 +2830,49 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P16" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q16" t="s">
         <v>134</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -2968,49 +2880,49 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" t="s">
+        <v>122</v>
+      </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>122</v>
+      </c>
+      <c r="I17" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" t="s">
+        <v>122</v>
+      </c>
+      <c r="K17" t="s">
+        <v>122</v>
+      </c>
+      <c r="L17" t="s">
+        <v>122</v>
+      </c>
+      <c r="M17" t="s">
+        <v>122</v>
+      </c>
+      <c r="N17" t="s">
+        <v>122</v>
+      </c>
+      <c r="P17" t="s">
         <v>138</v>
       </c>
-      <c r="C17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G17" t="s">
-        <v>123</v>
-      </c>
-      <c r="H17" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" t="s">
-        <v>123</v>
-      </c>
-      <c r="J17" t="s">
-        <v>123</v>
-      </c>
-      <c r="K17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L17" t="s">
-        <v>123</v>
-      </c>
-      <c r="M17" t="s">
-        <v>123</v>
-      </c>
-      <c r="N17" t="s">
-        <v>123</v>
-      </c>
-      <c r="P17" t="s">
-        <v>139</v>
-      </c>
       <c r="Q17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -3018,49 +2930,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" t="s">
         <v>124</v>
       </c>
-      <c r="F18" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" t="s">
-        <v>123</v>
-      </c>
-      <c r="H18" t="s">
-        <v>125</v>
-      </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P18" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" t="s">
         <v>129</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -3068,49 +2980,49 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P19" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" t="s">
         <v>134</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -3118,49 +3030,49 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P20" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" t="s">
         <v>134</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -3168,49 +3080,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P21" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" t="s">
         <v>131</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -3218,49 +3130,49 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P22" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" t="s">
         <v>127</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -3268,49 +3180,49 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
+        <v>123</v>
+      </c>
+      <c r="F23" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" t="s">
+        <v>122</v>
+      </c>
+      <c r="I23" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" t="s">
         <v>124</v>
       </c>
-      <c r="F23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G23" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" t="s">
-        <v>125</v>
-      </c>
       <c r="K23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P23" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q23" t="s">
         <v>152</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -3318,49 +3230,49 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N24" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P24" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q24" t="s">
         <v>127</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -3368,49 +3280,49 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P25" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" t="s">
         <v>127</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -3418,49 +3330,49 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P26" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" t="s">
         <v>127</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -3468,49 +3380,49 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P27" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q27" t="s">
         <v>127</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -3518,49 +3430,49 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N28" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q28" t="s">
         <v>127</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -3568,49 +3480,49 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P29" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q29" t="s">
         <v>127</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -3618,49 +3530,49 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P30" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q30" t="s">
         <v>129</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -3668,49 +3580,49 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N31" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P31" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q31" t="s">
         <v>152</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -3718,49 +3630,49 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K32" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N32" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P32" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q32" t="s">
         <v>152</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -3768,49 +3680,49 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N33" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P33" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q33" t="s">
         <v>152</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -3818,49 +3730,49 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J34" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P34" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q34" t="s">
         <v>166</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -3868,49 +3780,49 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N35" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P35" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q35" t="s">
         <v>129</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -3918,49 +3830,49 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P36" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q36" t="s">
         <v>127</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -3975,302 +3887,305 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" t="s">
         <v>170</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F1" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>172</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>173</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>174</v>
-      </c>
-      <c r="H1" t="s">
-        <v>175</v>
-      </c>
-      <c r="I1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
         <v>177</v>
       </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" t="s">
         <v>178</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>179</v>
       </c>
-      <c r="E2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" t="s">
-        <v>180</v>
-      </c>
-      <c r="G2" t="s">
-        <v>181</v>
-      </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" t="s">
         <v>182</v>
       </c>
-      <c r="D3" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G3" t="s">
-        <v>184</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" t="s">
         <v>185</v>
       </c>
-      <c r="D4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G4" t="s">
-        <v>187</v>
-      </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
         <v>188</v>
       </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="G5" t="s">
         <v>189</v>
       </c>
-      <c r="D5" t="s">
-        <v>179</v>
-      </c>
-      <c r="E5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F5" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" t="s">
-        <v>191</v>
-      </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G6" t="s">
         <v>192</v>
       </c>
-      <c r="D6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G6" t="s">
-        <v>194</v>
-      </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
         <v>195</v>
       </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>196</v>
       </c>
-      <c r="D7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G7" t="s">
-        <v>198</v>
-      </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" t="s">
         <v>199</v>
       </c>
-      <c r="D8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G8" t="s">
-        <v>201</v>
-      </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>201</v>
+      </c>
+      <c r="G9" t="s">
         <v>199</v>
       </c>
-      <c r="D9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E9" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G9" t="s">
-        <v>201</v>
-      </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" t="s">
         <v>206</v>
       </c>
-      <c r="B11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" t="s">
-        <v>208</v>
-      </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -4285,82 +4200,82 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" t="s">
         <v>209</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>210</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>211</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>212</v>
-      </c>
-      <c r="E1" t="s">
-        <v>213</v>
-      </c>
-      <c r="F1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
         <v>215</v>
       </c>
-      <c r="C2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>217</v>
-      </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4380,359 +4295,359 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
         <v>177</v>
       </c>
-      <c r="C2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" t="s">
-        <v>179</v>
-      </c>
       <c r="E2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" t="s">
         <v>177</v>
       </c>
-      <c r="C12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" t="s">
-        <v>179</v>
-      </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
         <v>145</v>
       </c>
-      <c r="B18" t="s">
-        <v>146</v>
-      </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4752,982 +4667,982 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" t="s">
         <v>137</v>
       </c>
-      <c r="B12" t="s">
-        <v>138</v>
-      </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
         <v>145</v>
       </c>
-      <c r="B18" t="s">
-        <v>146</v>
-      </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>156</v>
+      </c>
+      <c r="B27" t="s">
         <v>157</v>
       </c>
-      <c r="B27" t="s">
-        <v>158</v>
-      </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B36" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B37" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B40" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B41" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B49" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B51" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B52" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B53" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B55" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B56" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D56" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B59" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B60" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D66" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B70" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/开发资料/curriculumEvaluationSystem.xlsx
+++ b/开发资料/curriculumEvaluationSystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20385" windowHeight="8355" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="20385" windowHeight="8355" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="adminInfo" sheetId="10" r:id="rId1"/>
@@ -661,175 +661,179 @@
     <t>11-102</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>releaseTime</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>2017-10-25 14:16:52.323000000</t>
+  </si>
+  <si>
+    <t>从2017年10月24号起，开始使用本系统进行网上课程评教，希望各位学生、老师引起重视，认真做好本分工作，谢谢配合！</t>
+  </si>
+  <si>
+    <t>从2017年10月24号起，开始使用本系统进行网上课程评教，学生应遵从网上评教规范，实事求是对相应老师给予打分评教，谢谢配合！</t>
+  </si>
+  <si>
+    <t>课程评教：教师须知</t>
+  </si>
+  <si>
+    <t>从2017年10月24号起，开始使用本系统进行网上课程评教，教师应遵从网上评教规范，通知学生做好网上评教工作，实事求是，不得威胁、恐吓学生评教分数，谢谢配合！</t>
+  </si>
+  <si>
+    <t>teaPraiseListNum</t>
+  </si>
+  <si>
+    <t>theAllAvgScore</t>
+  </si>
+  <si>
+    <t>9.1199999</t>
+  </si>
+  <si>
+    <t>9.6800003</t>
+  </si>
+  <si>
+    <t>9.8699999</t>
+  </si>
+  <si>
+    <t>9.5100002</t>
+  </si>
+  <si>
+    <t>9.2799997</t>
+  </si>
+  <si>
+    <t>couClassStuInfoNum</t>
+  </si>
+  <si>
+    <t>isTeach</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>couFrom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于启用课程评教系统的通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程评教：学生须知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>noticeBarInfoNum</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>releaseTime</t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
-    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>noticeBarInfoLimit</t>
-  </si>
-  <si>
-    <t>关于启用课程评教系统的通知</t>
-  </si>
-  <si>
-    <t>2017-10-25 14:16:52.323000000</t>
-  </si>
-  <si>
-    <t>从2017年10月24号起，开始使用本系统进行网上课程评教，希望各位学生、老师引起重视，认真做好本分工作，谢谢配合！</t>
-  </si>
-  <si>
-    <t>课程评教：学生须知</t>
-  </si>
-  <si>
-    <t>从2017年10月24号起，开始使用本系统进行网上课程评教，学生应遵从网上评教规范，实事求是对相应老师给予打分评教，谢谢配合！</t>
-  </si>
-  <si>
-    <t>课程评教：教师须知</t>
-  </si>
-  <si>
-    <t>从2017年10月24号起，开始使用本系统进行网上课程评教，教师应遵从网上评教规范，通知学生做好网上评教工作，实事求是，不得威胁、恐吓学生评教分数，谢谢配合！</t>
-  </si>
-  <si>
-    <t>teaPraiseListNum</t>
-  </si>
-  <si>
-    <t>theAllAvgScore</t>
-  </si>
-  <si>
-    <t>9.1199999</t>
-  </si>
-  <si>
-    <t>9.6800003</t>
-  </si>
-  <si>
-    <t>9.8699999</t>
-  </si>
-  <si>
-    <t>9.5100002</t>
-  </si>
-  <si>
-    <t>9.2799997</t>
-  </si>
-  <si>
-    <t>couClassStuInfoNum</t>
-  </si>
-  <si>
-    <t>isTeach</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>couFrom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -884,6 +888,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -903,7 +975,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1694,7 +1766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -3887,7 +3959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -3907,7 +3979,7 @@
         <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>171</v>
@@ -4194,28 +4266,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" t="s">
         <v>207</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>208</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>209</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>210</v>
       </c>
-      <c r="E1" t="s">
-        <v>211</v>
-      </c>
       <c r="F1" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4223,16 +4297,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
         <v>101</v>
@@ -4243,16 +4317,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>216</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -4263,16 +4337,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -4295,7 +4369,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
         <v>105</v>
@@ -4307,7 +4381,7 @@
         <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4341,7 +4415,7 @@
         <v>181</v>
       </c>
       <c r="E3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -4358,7 +4432,7 @@
         <v>181</v>
       </c>
       <c r="E4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -4392,7 +4466,7 @@
         <v>181</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -4426,7 +4500,7 @@
         <v>181</v>
       </c>
       <c r="E8" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -4460,7 +4534,7 @@
         <v>181</v>
       </c>
       <c r="E10" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -4511,7 +4585,7 @@
         <v>181</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -4528,7 +4602,7 @@
         <v>181</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -4562,7 +4636,7 @@
         <v>181</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -4596,7 +4670,7 @@
         <v>181</v>
       </c>
       <c r="E18" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -4630,7 +4704,7 @@
         <v>181</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -4667,7 +4741,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
         <v>105</v>
@@ -4676,7 +4750,7 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -5171,7 +5245,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s">
         <v>175</v>
@@ -5185,7 +5259,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B38" t="s">
         <v>175</v>
@@ -5199,7 +5273,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B39" t="s">
         <v>175</v>
@@ -5213,7 +5287,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B40" t="s">
         <v>175</v>
@@ -5227,7 +5301,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B41" t="s">
         <v>175</v>
@@ -5241,7 +5315,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B42" t="s">
         <v>186</v>
@@ -5255,7 +5329,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B43" t="s">
         <v>186</v>
@@ -5269,7 +5343,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s">
         <v>186</v>
@@ -5283,7 +5357,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B45" t="s">
         <v>186</v>
@@ -5297,7 +5371,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s">
         <v>186</v>
@@ -5311,7 +5385,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
         <v>193</v>
@@ -5325,7 +5399,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s">
         <v>193</v>
@@ -5339,7 +5413,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B49" t="s">
         <v>193</v>
@@ -5353,7 +5427,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B50" t="s">
         <v>193</v>
@@ -5367,7 +5441,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
         <v>193</v>
@@ -5381,7 +5455,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B52" t="s">
         <v>193</v>
@@ -5395,7 +5469,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B53" t="s">
         <v>193</v>
@@ -5409,7 +5483,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B54" t="s">
         <v>200</v>
@@ -5423,7 +5497,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B55" t="s">
         <v>200</v>
@@ -5437,7 +5511,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B56" t="s">
         <v>200</v>
@@ -5451,7 +5525,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B57" t="s">
         <v>200</v>
@@ -5465,7 +5539,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B58" t="s">
         <v>200</v>
@@ -5479,7 +5553,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B59" t="s">
         <v>200</v>
@@ -5493,7 +5567,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B60" t="s">
         <v>200</v>
@@ -5507,7 +5581,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B61" t="s">
         <v>204</v>
@@ -5521,7 +5595,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B62" t="s">
         <v>204</v>
@@ -5535,7 +5609,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B63" t="s">
         <v>204</v>
@@ -5549,7 +5623,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s">
         <v>204</v>
@@ -5563,7 +5637,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s">
         <v>204</v>
@@ -5577,7 +5651,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s">
         <v>204</v>
@@ -5591,7 +5665,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B67" t="s">
         <v>204</v>
@@ -5605,7 +5679,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B68" t="s">
         <v>204</v>
@@ -5619,7 +5693,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B69" t="s">
         <v>204</v>
@@ -5633,7 +5707,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B70" t="s">
         <v>204</v>

--- a/开发资料/curriculumEvaluationSystem.xlsx
+++ b/开发资料/curriculumEvaluationSystem.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="20385" windowHeight="8355" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="20385" windowHeight="8355" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="adminInfo" sheetId="10" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="noticeBarInfo" sheetId="16" r:id="rId7"/>
     <sheet name="teaPraiseListInfo" sheetId="17" r:id="rId8"/>
     <sheet name="couClassStuInfo" sheetId="18" r:id="rId9"/>
+    <sheet name="commentContent" sheetId="19" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="adminInfo">adminInfo!$A$1:$E$6</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="286">
   <si>
     <t>adminNum</t>
   </si>
@@ -834,6 +835,94 @@
   </si>
   <si>
     <t>noticeBarInfoLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comConNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theFirstCon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theSecondCon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theThirdCon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theFourthCon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theFifthCon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theSixthCon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theSeventhCon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theEighthCon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theNinthCon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theTenthCon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comConRemarks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无上课迟到、早退、旷课、上课吸烟、接打电话、看书看报、调课未补、酒后上课等违纪现象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通话教学，语速适中，语言表达能力强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遵循教学大纲和授课，符合课程要求的教案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按课程要求布置和认真批改作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讲解有逻辑，思维清晰，语言流畅，生动，条理分明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注重于学生的互动，注意激发学生的思维能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂考勤认真，驾驭课堂的能力强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对学生要求严格，能及时纠正学生课堂的违纪现象，课堂秩序良好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生能掌握本门课的基本知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有助于学生能力的增强和素质的提高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,7 +930,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,6 +941,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -878,9 +975,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1371,6 +1471,96 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G1" t="s">
+        <v>270</v>
+      </c>
+      <c r="H1" t="s">
+        <v>271</v>
+      </c>
+      <c r="I1" t="s">
+        <v>272</v>
+      </c>
+      <c r="J1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" t="s">
+        <v>274</v>
+      </c>
+      <c r="L1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="148.5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
@@ -1766,7 +1956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -2138,7 +2328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -4363,7 +4553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>

--- a/开发资料/curriculumEvaluationSystem.xlsx
+++ b/开发资料/curriculumEvaluationSystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3000" windowWidth="20385" windowHeight="8355" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="3600" windowWidth="20385" windowHeight="8355" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="adminInfo" sheetId="10" r:id="rId1"/>
@@ -4457,7 +4457,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/开发资料/curriculumEvaluationSystem.xlsx
+++ b/开发资料/curriculumEvaluationSystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="20385" windowHeight="8355" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="4800" windowWidth="20385" windowHeight="8355" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="adminInfo" sheetId="10" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="286">
   <si>
     <t>adminNum</t>
   </si>
@@ -365,42 +365,6 @@
     <t>comFirstScore</t>
   </si>
   <si>
-    <t>comSecondScore</t>
-  </si>
-  <si>
-    <t>comThirdScore</t>
-  </si>
-  <si>
-    <t>comFourthScore</t>
-  </si>
-  <si>
-    <t>comFifthScore</t>
-  </si>
-  <si>
-    <t>comSixthScore</t>
-  </si>
-  <si>
-    <t>comSeventhScore</t>
-  </si>
-  <si>
-    <t>comEighthScore</t>
-  </si>
-  <si>
-    <t>comNinthScore</t>
-  </si>
-  <si>
-    <t>comTenthScore</t>
-  </si>
-  <si>
-    <t>comLeaMsg</t>
-  </si>
-  <si>
-    <t>comTotalScore</t>
-  </si>
-  <si>
-    <t>comAvgScore</t>
-  </si>
-  <si>
     <t>3002</t>
   </si>
   <si>
@@ -569,9 +533,6 @@
     <t>3001</t>
   </si>
   <si>
-    <t>SQL Server数据库应用技术</t>
-  </si>
-  <si>
     <t>171802</t>
   </si>
   <si>
@@ -690,9 +651,6 @@
   </si>
   <si>
     <t>teaPraiseListNum</t>
-  </si>
-  <si>
-    <t>theAllAvgScore</t>
   </si>
   <si>
     <t>9.1199999</t>
@@ -923,6 +881,62 @@
   </si>
   <si>
     <t>有助于学生能力的增强和素质的提高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL Server数据库应用技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comSecondScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comThirdScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comFourthScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comFifthScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comSixthScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comSeventhScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comEighthScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comNinthScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comTenthScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comLeaMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comTotalScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>comAvgScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theAllAvgScore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1475,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1483,40 +1497,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="F1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="G1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="H1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="I1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="J1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="K1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="148.5" x14ac:dyDescent="0.15">
@@ -1524,34 +1538,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2328,8 +2342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2351,40 +2365,40 @@
         <v>107</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>274</v>
       </c>
       <c r="H1" t="s">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="I1" t="s">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
-        <v>112</v>
+        <v>277</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>278</v>
       </c>
       <c r="L1" t="s">
-        <v>114</v>
+        <v>279</v>
       </c>
       <c r="M1" t="s">
-        <v>115</v>
+        <v>280</v>
       </c>
       <c r="N1" t="s">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="O1" t="s">
-        <v>117</v>
+        <v>282</v>
       </c>
       <c r="P1" t="s">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="Q1" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -2392,49 +2406,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="Q2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -2442,49 +2456,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P3" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -2492,49 +2506,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I4" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="N4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -2542,49 +2556,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="N5" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q5" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -2592,49 +2606,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="H6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Q6" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -2642,49 +2656,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
       </c>
       <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" t="s">
         <v>121</v>
       </c>
-      <c r="E7" t="s">
+      <c r="Q7" t="s">
         <v>122</v>
-      </c>
-      <c r="F7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" t="s">
-        <v>122</v>
-      </c>
-      <c r="I7" t="s">
-        <v>122</v>
-      </c>
-      <c r="J7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -2692,49 +2706,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P8" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q8" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -2742,49 +2756,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
       </c>
       <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>110</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" t="s">
+        <v>110</v>
+      </c>
+      <c r="P9" t="s">
         <v>121</v>
       </c>
-      <c r="E9" t="s">
+      <c r="Q9" t="s">
         <v>122</v>
-      </c>
-      <c r="F9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" t="s">
-        <v>122</v>
-      </c>
-      <c r="I9" t="s">
-        <v>122</v>
-      </c>
-      <c r="J9" t="s">
-        <v>122</v>
-      </c>
-      <c r="K9" t="s">
-        <v>122</v>
-      </c>
-      <c r="L9" t="s">
-        <v>122</v>
-      </c>
-      <c r="M9" t="s">
-        <v>122</v>
-      </c>
-      <c r="N9" t="s">
-        <v>122</v>
-      </c>
-      <c r="P9" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -2792,49 +2806,49 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I10" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Q10" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -2842,49 +2856,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" t="s">
+        <v>110</v>
+      </c>
+      <c r="J11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="P11" t="s">
         <v>121</v>
       </c>
-      <c r="E11" t="s">
+      <c r="Q11" t="s">
         <v>122</v>
-      </c>
-      <c r="F11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" t="s">
-        <v>122</v>
-      </c>
-      <c r="P11" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -2892,49 +2906,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="Q12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -2942,49 +2956,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q13" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -2992,49 +3006,49 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="Q14" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -3042,49 +3056,49 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
       <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" t="s">
+        <v>110</v>
+      </c>
+      <c r="M15" t="s">
+        <v>110</v>
+      </c>
+      <c r="N15" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" t="s">
         <v>121</v>
       </c>
-      <c r="E15" t="s">
+      <c r="Q15" t="s">
         <v>122</v>
-      </c>
-      <c r="F15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" t="s">
-        <v>122</v>
-      </c>
-      <c r="M15" t="s">
-        <v>122</v>
-      </c>
-      <c r="N15" t="s">
-        <v>122</v>
-      </c>
-      <c r="P15" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -3092,49 +3106,49 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
       </c>
       <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" t="s">
+        <v>111</v>
+      </c>
+      <c r="H16" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J16" t="s">
+        <v>110</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" t="s">
         <v>121</v>
       </c>
-      <c r="E16" t="s">
+      <c r="Q16" t="s">
         <v>122</v>
-      </c>
-      <c r="F16" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" t="s">
-        <v>122</v>
-      </c>
-      <c r="L16" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" t="s">
-        <v>122</v>
-      </c>
-      <c r="P16" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -3142,49 +3156,49 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P17" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="Q17" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -3192,49 +3206,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="I18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J18" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N18" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q18" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -3242,49 +3256,49 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
       </c>
       <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" t="s">
+        <v>110</v>
+      </c>
+      <c r="M19" t="s">
+        <v>110</v>
+      </c>
+      <c r="N19" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" t="s">
         <v>121</v>
       </c>
-      <c r="E19" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="Q19" t="s">
         <v>122</v>
-      </c>
-      <c r="G19" t="s">
-        <v>122</v>
-      </c>
-      <c r="H19" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" t="s">
-        <v>122</v>
-      </c>
-      <c r="J19" t="s">
-        <v>122</v>
-      </c>
-      <c r="K19" t="s">
-        <v>122</v>
-      </c>
-      <c r="L19" t="s">
-        <v>122</v>
-      </c>
-      <c r="M19" t="s">
-        <v>122</v>
-      </c>
-      <c r="N19" t="s">
-        <v>122</v>
-      </c>
-      <c r="P19" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -3292,49 +3306,49 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
       </c>
       <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" t="s">
+        <v>110</v>
+      </c>
+      <c r="J20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" t="s">
+        <v>110</v>
+      </c>
+      <c r="L20" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" t="s">
+        <v>110</v>
+      </c>
+      <c r="N20" t="s">
+        <v>110</v>
+      </c>
+      <c r="P20" t="s">
         <v>121</v>
       </c>
-      <c r="E20" t="s">
-        <v>123</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="Q20" t="s">
         <v>122</v>
-      </c>
-      <c r="G20" t="s">
-        <v>122</v>
-      </c>
-      <c r="H20" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" t="s">
-        <v>122</v>
-      </c>
-      <c r="N20" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -3342,49 +3356,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N21" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="Q21" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -3392,49 +3406,49 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N22" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q22" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -3442,49 +3456,49 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E23" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J23" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N23" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P23" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="Q23" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -3492,49 +3506,49 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E24" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q24" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -3542,49 +3556,49 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E25" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N25" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q25" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -3592,49 +3606,49 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N26" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q26" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -3642,49 +3656,49 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F27" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G27" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H27" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I27" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J27" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M27" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N27" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P27" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q27" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -3692,49 +3706,49 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E28" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N28" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q28" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -3742,49 +3756,49 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F29" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H29" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I29" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J29" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K29" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M29" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N29" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P29" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q29" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -3792,49 +3806,49 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F30" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G30" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H30" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I30" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J30" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K30" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L30" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M30" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N30" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q30" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -3842,49 +3856,49 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G31" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K31" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N31" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="Q31" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -3892,49 +3906,49 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E32" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F32" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G32" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H32" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I32" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J32" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K32" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M32" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N32" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="Q32" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -3942,49 +3956,49 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
         <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G33" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K33" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="L33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N33" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="Q33" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -3992,49 +4006,49 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="H34" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I34" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J34" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="K34" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L34" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M34" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N34" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P34" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="Q34" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -4042,49 +4056,49 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E35" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K35" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="M35" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="N35" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="P35" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="Q35" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -4092,49 +4106,49 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
         <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G36" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I36" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J36" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="K36" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="L36" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="M36" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="N36" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P36" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="Q36" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4150,7 +4164,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4163,48 +4177,48 @@
         <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F1" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>176</v>
+        <v>272</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
         <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G2" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -4212,25 +4226,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
         <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -4238,25 +4252,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
         <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -4264,25 +4278,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
         <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -4290,25 +4304,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
         <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
         <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -4316,25 +4330,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
         <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="G7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -4342,25 +4356,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
         <v>89</v>
       </c>
       <c r="F8" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G8" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -4368,25 +4382,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
         <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -4394,25 +4408,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
       </c>
       <c r="C10" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
         <v>84</v>
       </c>
       <c r="F10" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G10" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -4420,25 +4434,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
         <v>84</v>
       </c>
       <c r="F11" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="G11" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -4464,22 +4478,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="E1" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="F1" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4487,16 +4501,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="C2" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F2" t="s">
         <v>101</v>
@@ -4507,16 +4521,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -4527,16 +4541,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="C4" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -4551,15 +4565,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="B1" t="s">
         <v>105</v>
@@ -4568,10 +4584,10 @@
         <v>65</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="E1" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4579,13 +4595,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
         <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
         <v>101</v>
@@ -4596,16 +4612,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -4613,16 +4629,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
         <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -4630,13 +4646,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E5" t="s">
         <v>101</v>
@@ -4647,30 +4663,30 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C6" t="s">
         <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E6" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
         <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E7" t="s">
         <v>101</v>
@@ -4678,33 +4694,33 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C8" t="s">
         <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E8" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C9" t="s">
         <v>86</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
         <v>101</v>
@@ -4712,205 +4728,35 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
         <v>91</v>
       </c>
       <c r="D10" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="E10" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
         <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" t="s">
-        <v>181</v>
-      </c>
-      <c r="E13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D14" t="s">
-        <v>181</v>
-      </c>
-      <c r="E14" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" t="s">
-        <v>186</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" t="s">
-        <v>193</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" t="s">
-        <v>200</v>
-      </c>
-      <c r="C19" t="s">
-        <v>86</v>
-      </c>
-      <c r="D19" t="s">
-        <v>177</v>
-      </c>
-      <c r="E19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>147</v>
-      </c>
-      <c r="B20" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D20" t="s">
-        <v>181</v>
-      </c>
-      <c r="E20" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>148</v>
-      </c>
-      <c r="B21" t="s">
-        <v>204</v>
-      </c>
-      <c r="C21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" t="s">
-        <v>177</v>
-      </c>
-      <c r="E21" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4925,13 +4771,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B1" t="s">
         <v>105</v>
@@ -4940,7 +4788,7 @@
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4948,7 +4796,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>61</v>
@@ -4962,7 +4810,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
         <v>63</v>
@@ -4976,7 +4824,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -4990,7 +4838,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
         <v>39</v>
@@ -5004,7 +4852,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
@@ -5015,10 +4863,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
         <v>61</v>
@@ -5029,10 +4877,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
         <v>63</v>
@@ -5043,10 +4891,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
         <v>34</v>
@@ -5057,10 +4905,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
         <v>39</v>
@@ -5071,10 +4919,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -5085,10 +4933,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
         <v>61</v>
@@ -5099,10 +4947,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C13" t="s">
         <v>63</v>
@@ -5113,10 +4961,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C14" t="s">
         <v>34</v>
@@ -5127,10 +4975,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
         <v>39</v>
@@ -5141,10 +4989,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C16" t="s">
         <v>42</v>
@@ -5155,10 +5003,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="C17" t="s">
         <v>45</v>
@@ -5169,10 +5017,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C18" t="s">
         <v>61</v>
@@ -5183,10 +5031,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
@@ -5197,10 +5045,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C20" t="s">
         <v>34</v>
@@ -5211,10 +5059,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C21" t="s">
         <v>39</v>
@@ -5225,10 +5073,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -5239,10 +5087,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -5253,10 +5101,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C24" t="s">
         <v>49</v>
@@ -5267,10 +5115,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C25" t="s">
         <v>52</v>
@@ -5281,10 +5129,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="C26" t="s">
         <v>55</v>
@@ -5295,10 +5143,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
         <v>61</v>
@@ -5309,10 +5157,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
@@ -5323,10 +5171,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
         <v>34</v>
@@ -5337,10 +5185,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B30" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C30" t="s">
         <v>39</v>
@@ -5351,10 +5199,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C31" t="s">
         <v>42</v>
@@ -5365,10 +5213,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -5379,10 +5227,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C33" t="s">
         <v>49</v>
@@ -5393,10 +5241,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C34" t="s">
         <v>52</v>
@@ -5407,10 +5255,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C35" t="s">
         <v>55</v>
@@ -5421,10 +5269,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B36" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C36" t="s">
         <v>58</v>
@@ -5435,10 +5283,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
         <v>61</v>
@@ -5449,10 +5297,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
         <v>63</v>
@@ -5463,10 +5311,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C39" t="s">
         <v>34</v>
@@ -5477,10 +5325,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C40" t="s">
         <v>39</v>
@@ -5491,10 +5339,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C41" t="s">
         <v>42</v>
@@ -5505,10 +5353,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B42" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C42" t="s">
         <v>61</v>
@@ -5519,10 +5367,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C43" t="s">
         <v>63</v>
@@ -5533,10 +5381,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C44" t="s">
         <v>34</v>
@@ -5547,10 +5395,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C45" t="s">
         <v>39</v>
@@ -5561,10 +5409,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C46" t="s">
         <v>42</v>
@@ -5575,10 +5423,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C47" t="s">
         <v>61</v>
@@ -5589,10 +5437,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C48" t="s">
         <v>63</v>
@@ -5603,10 +5451,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C49" t="s">
         <v>34</v>
@@ -5617,10 +5465,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C50" t="s">
         <v>39</v>
@@ -5631,10 +5479,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
         <v>42</v>
@@ -5645,10 +5493,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C52" t="s">
         <v>45</v>
@@ -5659,10 +5507,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="C53" t="s">
         <v>49</v>
@@ -5673,10 +5521,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -5687,10 +5535,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
         <v>63</v>
@@ -5701,10 +5549,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C56" t="s">
         <v>34</v>
@@ -5715,10 +5563,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
         <v>39</v>
@@ -5729,10 +5577,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="B58" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
         <v>42</v>
@@ -5743,10 +5591,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="B59" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
         <v>45</v>
@@ -5757,10 +5605,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="B60" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
@@ -5771,10 +5619,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B61" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
         <v>61</v>
@@ -5785,10 +5633,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B62" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
         <v>63</v>
@@ -5799,10 +5647,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B63" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
         <v>34</v>
@@ -5813,10 +5661,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B64" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C64" t="s">
         <v>39</v>
@@ -5827,10 +5675,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C65" t="s">
         <v>42</v>
@@ -5841,10 +5689,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C66" t="s">
         <v>45</v>
@@ -5855,10 +5703,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C67" t="s">
         <v>49</v>
@@ -5869,10 +5717,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="B68" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
         <v>52</v>
@@ -5883,10 +5731,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C69" t="s">
         <v>55</v>
@@ -5897,10 +5745,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C70" t="s">
         <v>58</v>

--- a/开发资料/curriculumEvaluationSystem.xlsx
+++ b/开发资料/curriculumEvaluationSystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4800" windowWidth="20385" windowHeight="8355" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="20385" windowHeight="8355" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="adminInfo" sheetId="10" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>stuGrade</t>
   </si>
   <si>
-    <t>stuForm</t>
-  </si>
-  <si>
     <t>stuPhone</t>
   </si>
   <si>
@@ -937,6 +934,10 @@
   </si>
   <si>
     <t>theAllAvgScore</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuFrom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1497,40 +1498,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
         <v>250</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>251</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>252</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>253</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>254</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>255</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>256</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>257</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>258</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>259</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>260</v>
-      </c>
-      <c r="L1" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="148.5" x14ac:dyDescent="0.15">
@@ -1538,34 +1539,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>270</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1579,7 +1580,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1597,30 +1600,30 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>32</v>
-      </c>
-      <c r="G1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>37</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
@@ -1628,19 +1631,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
@@ -1648,19 +1651,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
         <v>42</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
         <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
@@ -1668,19 +1671,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
         <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>48</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -1688,19 +1691,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
         <v>50</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" t="s">
-        <v>51</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -1708,19 +1711,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
         <v>52</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1728,19 +1731,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>56</v>
-      </c>
-      <c r="C8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>57</v>
       </c>
       <c r="F8" t="s">
         <v>8</v>
@@ -1748,19 +1751,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>59</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
-        <v>60</v>
       </c>
       <c r="F9" t="s">
         <v>8</v>
@@ -1768,19 +1771,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
         <v>61</v>
       </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
       <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
@@ -1788,19 +1791,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1809,6 +1812,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1823,140 +1827,140 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>66</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>67</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>70</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
         <v>73</v>
       </c>
-      <c r="C2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>74</v>
-      </c>
-      <c r="E2" t="s">
-        <v>75</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
         <v>78</v>
       </c>
-      <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
       <c r="E3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>84</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>86</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
         <v>87</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>88</v>
-      </c>
-      <c r="E5" t="s">
-        <v>89</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>91</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
         <v>92</v>
       </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>93</v>
-      </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1976,104 +1980,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" t="s">
         <v>81</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
         <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s">
         <v>91</v>
-      </c>
-      <c r="B6" t="s">
-        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2087,10 +2091,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2104,10 +2108,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2121,10 +2125,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2138,10 +2142,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2155,180 +2159,180 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" t="s">
         <v>39</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" t="s">
         <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
         <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
         <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
         <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>53</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" t="s">
-        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" t="s">
         <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
         <v>61</v>
-      </c>
-      <c r="B20" t="s">
-        <v>62</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
         <v>63</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2342,7 +2346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -2350,55 +2354,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" t="s">
         <v>104</v>
-      </c>
-      <c r="B1" t="s">
-        <v>105</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" t="s">
         <v>106</v>
       </c>
-      <c r="E1" t="s">
-        <v>107</v>
-      </c>
       <c r="F1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" t="s">
         <v>273</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>274</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>275</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>276</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>277</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>278</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>279</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>280</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>281</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>282</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>283</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -2406,49 +2410,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>109</v>
-      </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H2" t="s">
         <v>111</v>
-      </c>
-      <c r="H2" t="s">
-        <v>112</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
       </c>
       <c r="J2" t="s">
+        <v>111</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" t="s">
         <v>112</v>
       </c>
-      <c r="K2" t="s">
-        <v>111</v>
-      </c>
-      <c r="L2" t="s">
-        <v>110</v>
-      </c>
-      <c r="M2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" t="s">
-        <v>111</v>
-      </c>
-      <c r="P2" t="s">
-        <v>113</v>
-      </c>
       <c r="Q2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -2456,49 +2460,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
         <v>108</v>
       </c>
-      <c r="C3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" t="s">
-        <v>109</v>
-      </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q3" t="s">
         <v>114</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -2506,49 +2510,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>108</v>
       </c>
-      <c r="C4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" t="s">
-        <v>109</v>
-      </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P4" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" t="s">
         <v>116</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -2556,49 +2560,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
         <v>108</v>
       </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>109</v>
-      </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P5" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" t="s">
         <v>114</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -2606,49 +2610,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>108</v>
       </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>109</v>
-      </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P6" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q6" t="s">
         <v>118</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -2656,49 +2660,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" t="s">
+        <v>110</v>
+      </c>
+      <c r="N7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" t="s">
         <v>120</v>
       </c>
-      <c r="C7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N7" t="s">
-        <v>110</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -2706,49 +2710,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" t="s">
         <v>114</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -2756,49 +2760,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E9" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" t="s">
+        <v>109</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" t="s">
         <v>120</v>
       </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E9" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" t="s">
-        <v>111</v>
-      </c>
-      <c r="G9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" t="s">
-        <v>110</v>
-      </c>
-      <c r="L9" t="s">
-        <v>110</v>
-      </c>
-      <c r="M9" t="s">
-        <v>110</v>
-      </c>
-      <c r="N9" t="s">
-        <v>110</v>
-      </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>121</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -2806,49 +2810,49 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
         <v>111</v>
       </c>
-      <c r="G10" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" t="s">
-        <v>110</v>
-      </c>
-      <c r="I10" t="s">
-        <v>112</v>
-      </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P10" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" t="s">
         <v>118</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -2856,49 +2860,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="s">
         <v>120</v>
       </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G11" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I11" t="s">
-        <v>110</v>
-      </c>
-      <c r="J11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K11" t="s">
-        <v>110</v>
-      </c>
-      <c r="L11" t="s">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s">
-        <v>110</v>
-      </c>
-      <c r="N11" t="s">
-        <v>110</v>
-      </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>121</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -2906,49 +2910,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" t="s">
         <v>125</v>
       </c>
-      <c r="C12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" t="s">
-        <v>110</v>
-      </c>
-      <c r="G12" t="s">
-        <v>110</v>
-      </c>
-      <c r="H12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" t="s">
-        <v>110</v>
-      </c>
-      <c r="J12" t="s">
-        <v>110</v>
-      </c>
-      <c r="K12" t="s">
-        <v>110</v>
-      </c>
-      <c r="L12" t="s">
-        <v>110</v>
-      </c>
-      <c r="M12" t="s">
-        <v>110</v>
-      </c>
-      <c r="N12" t="s">
-        <v>110</v>
-      </c>
-      <c r="P12" t="s">
-        <v>126</v>
-      </c>
       <c r="Q12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -2956,49 +2960,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P13" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q13" t="s">
         <v>114</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -3006,49 +3010,49 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G14" t="s">
+        <v>109</v>
+      </c>
+      <c r="H14" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" t="s">
+        <v>109</v>
+      </c>
+      <c r="N14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" t="s">
         <v>125</v>
       </c>
-      <c r="C14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" t="s">
-        <v>110</v>
-      </c>
-      <c r="H14" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K14" t="s">
-        <v>110</v>
-      </c>
-      <c r="L14" t="s">
-        <v>110</v>
-      </c>
-      <c r="M14" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" t="s">
-        <v>110</v>
-      </c>
-      <c r="P14" t="s">
-        <v>126</v>
-      </c>
       <c r="Q14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -3056,49 +3060,49 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q15" t="s">
         <v>121</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -3106,49 +3110,49 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P16" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q16" t="s">
         <v>121</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -3156,49 +3160,49 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E17" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" t="s">
+        <v>109</v>
+      </c>
+      <c r="I17" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" t="s">
+        <v>109</v>
+      </c>
+      <c r="N17" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" t="s">
         <v>125</v>
       </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" t="s">
-        <v>110</v>
-      </c>
-      <c r="F17" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H17" t="s">
-        <v>110</v>
-      </c>
-      <c r="I17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17" t="s">
-        <v>110</v>
-      </c>
-      <c r="K17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L17" t="s">
-        <v>110</v>
-      </c>
-      <c r="M17" t="s">
-        <v>110</v>
-      </c>
-      <c r="N17" t="s">
-        <v>110</v>
-      </c>
-      <c r="P17" t="s">
-        <v>126</v>
-      </c>
       <c r="Q17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -3206,49 +3210,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" t="s">
         <v>111</v>
       </c>
-      <c r="F18" t="s">
-        <v>110</v>
-      </c>
-      <c r="G18" t="s">
-        <v>110</v>
-      </c>
-      <c r="H18" t="s">
-        <v>112</v>
-      </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P18" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q18" t="s">
         <v>116</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -3256,49 +3260,49 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P19" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" t="s">
         <v>121</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -3306,49 +3310,49 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P20" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q20" t="s">
         <v>121</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -3356,49 +3360,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P21" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q21" t="s">
         <v>118</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -3406,49 +3410,49 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P22" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q22" t="s">
         <v>114</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -3456,49 +3460,49 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
+        <v>110</v>
+      </c>
+      <c r="F23" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" t="s">
         <v>111</v>
       </c>
-      <c r="F23" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" t="s">
-        <v>110</v>
-      </c>
-      <c r="I23" t="s">
-        <v>110</v>
-      </c>
-      <c r="J23" t="s">
-        <v>112</v>
-      </c>
       <c r="K23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q23" t="s">
         <v>139</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -3506,49 +3510,49 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P24" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q24" t="s">
         <v>114</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -3556,49 +3560,49 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P25" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" t="s">
         <v>114</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -3606,49 +3610,49 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P26" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q26" t="s">
         <v>114</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -3656,49 +3660,49 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q27" t="s">
         <v>114</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -3706,49 +3710,49 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P28" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" t="s">
         <v>114</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -3756,49 +3760,49 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P29" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q29" t="s">
         <v>114</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -3806,49 +3810,49 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P30" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q30" t="s">
         <v>116</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -3856,49 +3860,49 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P31" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q31" t="s">
         <v>139</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -3906,49 +3910,49 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P32" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q32" t="s">
         <v>139</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -3956,49 +3960,49 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P33" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q33" t="s">
         <v>139</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -4006,49 +4010,49 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P34" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q34" t="s">
         <v>153</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -4056,49 +4060,49 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="P35" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q35" t="s">
         <v>116</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -4106,49 +4110,49 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P36" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q36" t="s">
         <v>114</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4171,54 +4175,54 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" t="s">
         <v>157</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" t="s">
         <v>158</v>
       </c>
-      <c r="E1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>159</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>160</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>161</v>
-      </c>
-      <c r="I1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D2" t="s">
         <v>163</v>
       </c>
-      <c r="B2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" t="s">
         <v>164</v>
       </c>
-      <c r="E2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>165</v>
-      </c>
-      <c r="G2" t="s">
-        <v>166</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -4226,25 +4230,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" t="s">
         <v>167</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" t="s">
         <v>168</v>
-      </c>
-      <c r="E3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G3" t="s">
-        <v>169</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -4252,25 +4256,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
         <v>170</v>
       </c>
-      <c r="D4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>171</v>
-      </c>
-      <c r="G4" t="s">
-        <v>172</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -4278,25 +4282,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
         <v>173</v>
       </c>
-      <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" t="s">
         <v>174</v>
       </c>
-      <c r="D5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>175</v>
-      </c>
-      <c r="G5" t="s">
-        <v>176</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -4304,25 +4308,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>167</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
         <v>177</v>
       </c>
-      <c r="D6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>178</v>
-      </c>
-      <c r="G6" t="s">
-        <v>179</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -4330,25 +4334,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
         <v>180</v>
       </c>
-      <c r="B7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
         <v>181</v>
       </c>
-      <c r="D7" t="s">
-        <v>164</v>
-      </c>
-      <c r="E7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>182</v>
-      </c>
-      <c r="G7" t="s">
-        <v>183</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -4356,25 +4360,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
         <v>184</v>
       </c>
-      <c r="D8" t="s">
-        <v>168</v>
-      </c>
-      <c r="E8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>185</v>
-      </c>
-      <c r="G8" t="s">
-        <v>186</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -4382,25 +4386,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" t="s">
         <v>187</v>
       </c>
-      <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>184</v>
-      </c>
-      <c r="D9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" t="s">
-        <v>188</v>
-      </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -4408,25 +4412,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>170</v>
+      </c>
+      <c r="G10" t="s">
         <v>189</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" t="s">
-        <v>171</v>
-      </c>
-      <c r="G10" t="s">
-        <v>190</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -4434,25 +4438,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>190</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
         <v>191</v>
       </c>
-      <c r="B11" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" t="s">
         <v>192</v>
-      </c>
-      <c r="D11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" t="s">
-        <v>178</v>
-      </c>
-      <c r="G11" t="s">
-        <v>193</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -4478,22 +4482,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F1" t="s">
         <v>248</v>
-      </c>
-      <c r="B1" t="s">
-        <v>194</v>
-      </c>
-      <c r="C1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F1" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4501,19 +4505,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
         <v>198</v>
       </c>
-      <c r="D2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" t="s">
-        <v>199</v>
-      </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -4521,16 +4525,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -4541,16 +4545,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
         <v>201</v>
-      </c>
-      <c r="C4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" t="s">
-        <v>202</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -4575,19 +4579,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4595,16 +4599,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
         <v>163</v>
       </c>
-      <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="s">
-        <v>164</v>
-      </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4612,16 +4616,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -4629,16 +4633,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -4646,16 +4650,16 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -4663,101 +4667,101 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4779,16 +4783,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4796,10 +4800,10 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -4810,10 +4814,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -4824,10 +4828,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -4838,10 +4842,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -4852,10 +4856,10 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -4863,13 +4867,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -4877,13 +4881,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -4891,13 +4895,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -4905,13 +4909,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -4919,27 +4923,27 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
         <v>124</v>
       </c>
-      <c r="B12" t="s">
-        <v>125</v>
-      </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
         <v>9</v>
@@ -4947,13 +4951,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -4961,13 +4965,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -4975,13 +4979,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
         <v>9</v>
@@ -4989,13 +4993,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
         <v>9</v>
@@ -5003,13 +5007,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" t="s">
         <v>9</v>
@@ -5017,13 +5021,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
         <v>132</v>
       </c>
-      <c r="B18" t="s">
-        <v>133</v>
-      </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
         <v>9</v>
@@ -5031,13 +5035,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
@@ -5045,13 +5049,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
@@ -5059,13 +5063,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
         <v>9</v>
@@ -5073,13 +5077,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -5087,13 +5091,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
@@ -5101,13 +5105,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
         <v>9</v>
@@ -5115,13 +5119,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
         <v>9</v>
@@ -5129,13 +5133,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" t="s">
         <v>9</v>
@@ -5143,13 +5147,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27" t="s">
         <v>144</v>
       </c>
-      <c r="B27" t="s">
-        <v>145</v>
-      </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
@@ -5157,27 +5161,27 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
         <v>9</v>
@@ -5185,13 +5189,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
         <v>9</v>
@@ -5199,13 +5203,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -5213,13 +5217,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
         <v>9</v>
@@ -5227,13 +5231,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" t="s">
         <v>9</v>
@@ -5241,13 +5245,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>9</v>
@@ -5255,13 +5259,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
         <v>9</v>
@@ -5269,13 +5273,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
         <v>9</v>
@@ -5283,478 +5287,478 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B41" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B58" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B59" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C59" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D59" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B60" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D69" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/开发资料/curriculumEvaluationSystem.xlsx
+++ b/开发资料/curriculumEvaluationSystem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="20385" windowHeight="8355" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="20385" windowHeight="8355" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="adminInfo" sheetId="10" r:id="rId1"/>
@@ -245,9 +245,6 @@
     <t>teaBirthday</t>
   </si>
   <si>
-    <t>teaForm</t>
-  </si>
-  <si>
     <t>teaPhone</t>
   </si>
   <si>
@@ -938,6 +935,10 @@
   </si>
   <si>
     <t>stuFrom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>teaFrom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1498,40 +1499,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" t="s">
         <v>249</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>250</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>251</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>252</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>253</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>254</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>255</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>256</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>257</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>258</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>259</v>
-      </c>
-      <c r="L1" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="148.5" x14ac:dyDescent="0.15">
@@ -1539,34 +1540,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -1580,7 +1581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1600,7 +1601,7 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F1" t="s">
         <v>31</v>
@@ -1821,7 +1822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
@@ -1839,133 +1842,134 @@
         <v>67</v>
       </c>
       <c r="E1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" t="s">
         <v>68</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>69</v>
-      </c>
-      <c r="G1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>46</v>
       </c>
       <c r="D2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" t="s">
         <v>73</v>
-      </c>
-      <c r="E2" t="s">
-        <v>74</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
       </c>
       <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
         <v>82</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
       </c>
       <c r="F4" t="s">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
         <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
         <v>87</v>
-      </c>
-      <c r="E5" t="s">
-        <v>88</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -1980,104 +1984,104 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
         <v>94</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
-      </c>
-      <c r="E1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>72</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
         <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>77</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>81</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" t="s">
         <v>85</v>
-      </c>
-      <c r="B5" t="s">
-        <v>86</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
         <v>90</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2091,10 +2095,10 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2108,10 +2112,10 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2125,10 +2129,10 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2142,10 +2146,10 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2159,10 +2163,10 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2176,10 +2180,10 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -2193,10 +2197,10 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -2210,10 +2214,10 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -2227,10 +2231,10 @@
         <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -2244,10 +2248,10 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -2261,10 +2265,10 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -2278,10 +2282,10 @@
         <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -2295,10 +2299,10 @@
         <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -2312,10 +2316,10 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -2329,10 +2333,10 @@
         <v>7</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2346,7 +2350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -2354,55 +2358,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" t="s">
         <v>103</v>
-      </c>
-      <c r="B1" t="s">
-        <v>104</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
       </c>
       <c r="D1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
       <c r="F1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" t="s">
         <v>272</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>273</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>274</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>275</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>276</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>277</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>278</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>279</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>280</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>281</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>282</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
@@ -2410,49 +2414,49 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H2" t="s">
         <v>110</v>
-      </c>
-      <c r="H2" t="s">
-        <v>111</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
       </c>
       <c r="J2" t="s">
+        <v>110</v>
+      </c>
+      <c r="K2" t="s">
+        <v>109</v>
+      </c>
+      <c r="L2" t="s">
+        <v>108</v>
+      </c>
+      <c r="M2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" t="s">
         <v>111</v>
       </c>
-      <c r="K2" t="s">
-        <v>110</v>
-      </c>
-      <c r="L2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M2" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" t="s">
-        <v>110</v>
-      </c>
-      <c r="P2" t="s">
-        <v>112</v>
-      </c>
       <c r="Q2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
@@ -2460,49 +2464,49 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" t="s">
         <v>113</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
@@ -2510,49 +2514,49 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P4" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" t="s">
         <v>115</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -2560,49 +2564,49 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P5" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q5" t="s">
         <v>113</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -2610,49 +2614,49 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q6" t="s">
         <v>117</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -2660,49 +2664,49 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -2710,49 +2714,49 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P8" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q8" t="s">
         <v>113</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -2760,49 +2764,49 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P9" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q9" t="s">
         <v>120</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -2810,49 +2814,49 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" t="s">
+        <v>108</v>
+      </c>
+      <c r="I10" t="s">
         <v>110</v>
       </c>
-      <c r="G10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H10" t="s">
-        <v>109</v>
-      </c>
-      <c r="I10" t="s">
-        <v>111</v>
-      </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P10" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q10" t="s">
         <v>117</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -2860,49 +2864,49 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P11" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q11" t="s">
         <v>120</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -2910,49 +2914,49 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -2960,49 +2964,49 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P13" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q13" t="s">
         <v>113</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -3010,49 +3014,49 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -3060,49 +3064,49 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P15" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" t="s">
         <v>120</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -3110,49 +3114,49 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q16" t="s">
         <v>120</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -3160,49 +3164,49 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="Q17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -3210,49 +3214,49 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E18" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>108</v>
+      </c>
+      <c r="G18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" t="s">
         <v>110</v>
       </c>
-      <c r="F18" t="s">
-        <v>109</v>
-      </c>
-      <c r="G18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" t="s">
-        <v>111</v>
-      </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P18" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q18" t="s">
         <v>115</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -3260,49 +3264,49 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P19" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q19" t="s">
         <v>120</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -3310,49 +3314,49 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" t="s">
         <v>120</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -3360,49 +3364,49 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P21" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" t="s">
         <v>117</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -3410,49 +3414,49 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P22" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q22" t="s">
         <v>113</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -3460,49 +3464,49 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
       </c>
       <c r="D23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E23" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" t="s">
         <v>110</v>
       </c>
-      <c r="F23" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" t="s">
-        <v>109</v>
-      </c>
-      <c r="H23" t="s">
-        <v>109</v>
-      </c>
-      <c r="I23" t="s">
-        <v>109</v>
-      </c>
-      <c r="J23" t="s">
-        <v>111</v>
-      </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q23" t="s">
         <v>138</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -3510,49 +3514,49 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P24" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q24" t="s">
         <v>113</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -3560,49 +3564,49 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P25" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q25" t="s">
         <v>113</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -3610,49 +3614,49 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
       </c>
       <c r="D26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P26" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q26" t="s">
         <v>113</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -3660,49 +3664,49 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P27" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q27" t="s">
         <v>113</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -3710,49 +3714,49 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P28" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q28" t="s">
         <v>113</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -3760,49 +3764,49 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P29" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q29" t="s">
         <v>113</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -3810,49 +3814,49 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P30" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q30" t="s">
         <v>115</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -3860,49 +3864,49 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P31" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" t="s">
         <v>138</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -3910,49 +3914,49 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P32" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q32" t="s">
         <v>138</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -3960,49 +3964,49 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
       </c>
       <c r="D33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P33" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q33" t="s">
         <v>138</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -4010,49 +4014,49 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P34" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q34" t="s">
         <v>152</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -4060,49 +4064,49 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
         <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P35" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q35" t="s">
         <v>115</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -4110,49 +4114,49 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P36" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q36" t="s">
         <v>113</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4168,61 +4172,61 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>64</v>
       </c>
       <c r="C1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s">
-        <v>244</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>160</v>
-      </c>
-      <c r="I1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" t="s">
         <v>162</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" t="s">
         <v>163</v>
       </c>
-      <c r="E2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>164</v>
-      </c>
-      <c r="G2" t="s">
-        <v>165</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -4230,25 +4234,25 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D3" t="s">
         <v>166</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" t="s">
         <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" t="s">
-        <v>168</v>
       </c>
       <c r="H3" t="s">
         <v>17</v>
@@ -4256,25 +4260,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s">
         <v>169</v>
       </c>
-      <c r="D4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>170</v>
-      </c>
-      <c r="G4" t="s">
-        <v>171</v>
       </c>
       <c r="H4" t="s">
         <v>17</v>
@@ -4282,25 +4286,25 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
         <v>172</v>
       </c>
-      <c r="B5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" t="s">
         <v>173</v>
       </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>174</v>
-      </c>
-      <c r="G5" t="s">
-        <v>175</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -4308,25 +4312,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
         <v>176</v>
       </c>
-      <c r="D6" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" t="s">
-        <v>83</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>177</v>
-      </c>
-      <c r="G6" t="s">
-        <v>178</v>
       </c>
       <c r="H6" t="s">
         <v>13</v>
@@ -4334,25 +4338,25 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
         <v>179</v>
       </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
         <v>180</v>
       </c>
-      <c r="D7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>181</v>
-      </c>
-      <c r="G7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" t="s">
         <v>9</v>
@@ -4360,25 +4364,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" t="s">
         <v>183</v>
       </c>
-      <c r="D8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>184</v>
-      </c>
-      <c r="G8" t="s">
-        <v>185</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
@@ -4386,25 +4390,25 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
         <v>186</v>
       </c>
-      <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9" t="s">
-        <v>183</v>
-      </c>
-      <c r="D9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F9" t="s">
-        <v>187</v>
-      </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
@@ -4412,25 +4416,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G10" t="s">
         <v>188</v>
-      </c>
-      <c r="D10" t="s">
-        <v>167</v>
-      </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G10" t="s">
-        <v>189</v>
       </c>
       <c r="H10" t="s">
         <v>13</v>
@@ -4438,25 +4442,25 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
         <v>190</v>
       </c>
-      <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>176</v>
+      </c>
+      <c r="G11" t="s">
         <v>191</v>
-      </c>
-      <c r="D11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" t="s">
-        <v>192</v>
       </c>
       <c r="H11" t="s">
         <v>13</v>
@@ -4474,30 +4478,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" t="s">
         <v>247</v>
-      </c>
-      <c r="B1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" t="s">
-        <v>196</v>
-      </c>
-      <c r="F1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4505,19 +4509,19 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
         <v>61</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -4525,16 +4529,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -4545,16 +4549,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -4579,19 +4583,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -4599,16 +4603,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
         <v>162</v>
       </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" t="s">
-        <v>163</v>
-      </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -4616,16 +4620,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -4633,16 +4637,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -4650,16 +4654,16 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -4667,101 +4671,101 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4783,16 +4787,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>27</v>
       </c>
       <c r="D1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4800,7 +4804,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -4814,7 +4818,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -4828,7 +4832,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -4842,7 +4846,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -4856,7 +4860,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -4867,10 +4871,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
         <v>60</v>
@@ -4881,10 +4885,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
         <v>62</v>
@@ -4895,10 +4899,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
         <v>33</v>
@@ -4909,10 +4913,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -4923,24 +4927,24 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" t="s">
         <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
         <v>123</v>
-      </c>
-      <c r="B12" t="s">
-        <v>124</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
@@ -4951,10 +4955,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
@@ -4965,10 +4969,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
         <v>33</v>
@@ -4979,10 +4983,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" t="s">
         <v>38</v>
@@ -4993,10 +4997,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -5007,10 +5011,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C17" t="s">
         <v>44</v>
@@ -5021,10 +5025,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" t="s">
         <v>131</v>
-      </c>
-      <c r="B18" t="s">
-        <v>132</v>
       </c>
       <c r="C18" t="s">
         <v>60</v>
@@ -5035,10 +5039,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" t="s">
         <v>62</v>
@@ -5049,10 +5053,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -5063,10 +5067,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
@@ -5077,10 +5081,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C22" t="s">
         <v>41</v>
@@ -5091,10 +5095,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -5105,10 +5109,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
         <v>48</v>
@@ -5119,10 +5123,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C25" t="s">
         <v>51</v>
@@ -5133,10 +5137,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" t="s">
         <v>54</v>
@@ -5147,10 +5151,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
         <v>143</v>
-      </c>
-      <c r="B27" t="s">
-        <v>144</v>
       </c>
       <c r="C27" t="s">
         <v>60</v>
@@ -5161,24 +5165,24 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B28" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C28" t="s">
         <v>62</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
@@ -5189,10 +5193,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" t="s">
         <v>38</v>
@@ -5203,10 +5207,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C31" t="s">
         <v>41</v>
@@ -5217,10 +5221,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C32" t="s">
         <v>44</v>
@@ -5231,10 +5235,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C33" t="s">
         <v>48</v>
@@ -5245,10 +5249,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" t="s">
         <v>51</v>
@@ -5259,10 +5263,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C35" t="s">
         <v>54</v>
@@ -5273,10 +5277,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" t="s">
         <v>57</v>
@@ -5287,478 +5291,478 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C37" t="s">
         <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
         <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C41" t="s">
         <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C42" t="s">
         <v>60</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C43" t="s">
         <v>62</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C44" t="s">
         <v>33</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
         <v>38</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
         <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C47" t="s">
         <v>60</v>
       </c>
       <c r="D47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C48" t="s">
         <v>62</v>
       </c>
       <c r="D48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C49" t="s">
         <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C50" t="s">
         <v>38</v>
       </c>
       <c r="D50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C51" t="s">
         <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
         <v>44</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" t="s">
         <v>48</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C54" t="s">
         <v>60</v>
       </c>
       <c r="D54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B56" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C57" t="s">
         <v>38</v>
       </c>
       <c r="D57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B58" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C58" t="s">
         <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
         <v>44</v>
       </c>
       <c r="D59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C60" t="s">
         <v>48</v>
       </c>
       <c r="D60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B61" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
         <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B62" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
         <v>62</v>
       </c>
       <c r="D62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B63" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
         <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C64" t="s">
         <v>38</v>
       </c>
       <c r="D64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C65" t="s">
         <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B66" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s">
         <v>44</v>
       </c>
       <c r="D66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s">
         <v>48</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C68" t="s">
         <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B69" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C69" t="s">
         <v>54</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C70" t="s">
         <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
